--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1571.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1571.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.077038928255559</v>
+        <v>0.7070478796958923</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.185357928276062</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.645100951194763</v>
       </c>
       <c r="D1">
         <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.068315845737035</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
